--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo2-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo2-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Rspo2</t>
   </si>
   <si>
@@ -88,10 +91,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +543,40 @@
         <v>5.628527</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.220366</v>
+        <v>0.2158443333333333</v>
       </c>
       <c r="N2">
-        <v>0.661098</v>
+        <v>0.647533</v>
       </c>
       <c r="O2">
-        <v>0.07392971980931644</v>
+        <v>0.0304269596471442</v>
       </c>
       <c r="P2">
-        <v>0.07748491934499904</v>
+        <v>0.0383225350174662</v>
       </c>
       <c r="Q2">
-        <v>0.4134453269606666</v>
+        <v>0.4049618859878889</v>
       </c>
       <c r="R2">
-        <v>3.721007942646</v>
+        <v>3.644656973891</v>
       </c>
       <c r="S2">
-        <v>0.07392971980931644</v>
+        <v>0.03009534036959741</v>
       </c>
       <c r="T2">
-        <v>0.07748491934499904</v>
+        <v>0.03804307168982132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>5.628527</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>6.963486</v>
       </c>
       <c r="O3">
-        <v>0.778717480428163</v>
+        <v>0.3272075825100088</v>
       </c>
       <c r="P3">
-        <v>0.816165154137556</v>
+        <v>0.4121155772426048</v>
       </c>
       <c r="Q3">
         <v>4.354907662791333</v>
@@ -635,10 +635,10 @@
         <v>39.194168965122</v>
       </c>
       <c r="S3">
-        <v>0.778717480428163</v>
+        <v>0.3236413917575264</v>
       </c>
       <c r="T3">
-        <v>0.816165154137556</v>
+        <v>0.4091102648190395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,40 +667,40 @@
         <v>5.628527</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02892933333333333</v>
+        <v>4.3846295</v>
       </c>
       <c r="N4">
-        <v>0.086788</v>
+        <v>8.769259</v>
       </c>
       <c r="O4">
-        <v>0.009705387889255384</v>
+        <v>0.6180887068188557</v>
       </c>
       <c r="P4">
-        <v>0.01017210939998877</v>
+        <v>0.5189854958816471</v>
       </c>
       <c r="Q4">
-        <v>0.05427651125288889</v>
+        <v>8.226335175248833</v>
       </c>
       <c r="R4">
-        <v>0.488488601276</v>
+        <v>49.358011051493</v>
       </c>
       <c r="S4">
-        <v>0.009705387889255384</v>
+        <v>0.6113522424204373</v>
       </c>
       <c r="T4">
-        <v>0.01017210939998877</v>
+        <v>0.515200845059033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,40 +729,288 @@
         <v>5.628527</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4102925</v>
+        <v>0.1722156666666667</v>
       </c>
       <c r="N5">
-        <v>0.820585</v>
+        <v>0.516647</v>
       </c>
       <c r="O5">
-        <v>0.1376474118732652</v>
+        <v>0.02427675102399122</v>
       </c>
       <c r="P5">
-        <v>0.09617781711745617</v>
+        <v>0.03057639185828191</v>
       </c>
       <c r="Q5">
-        <v>0.7697808047158333</v>
+        <v>0.3231068432187778</v>
       </c>
       <c r="R5">
-        <v>4.618684828295</v>
+        <v>2.907961588969</v>
       </c>
       <c r="S5">
-        <v>0.1376474118732652</v>
+        <v>0.02401216203024616</v>
       </c>
       <c r="T5">
-        <v>0.09617781711745617</v>
+        <v>0.03035341651982388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.0206735</v>
+      </c>
+      <c r="H6">
+        <v>0.041347</v>
+      </c>
+      <c r="I6">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J6">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2158443333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.647533</v>
+      </c>
+      <c r="O6">
+        <v>0.0304269596471442</v>
+      </c>
+      <c r="P6">
+        <v>0.0383225350174662</v>
+      </c>
+      <c r="Q6">
+        <v>0.004462257825166667</v>
+      </c>
+      <c r="R6">
+        <v>0.026773546951</v>
+      </c>
+      <c r="S6">
+        <v>0.0003316192775467926</v>
+      </c>
+      <c r="T6">
+        <v>0.000279463327644878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0206735</v>
+      </c>
+      <c r="H7">
+        <v>0.041347</v>
+      </c>
+      <c r="I7">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J7">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.321162</v>
+      </c>
+      <c r="N7">
+        <v>6.963486</v>
+      </c>
+      <c r="O7">
+        <v>0.3272075825100088</v>
+      </c>
+      <c r="P7">
+        <v>0.4121155772426048</v>
+      </c>
+      <c r="Q7">
+        <v>0.047986542607</v>
+      </c>
+      <c r="R7">
+        <v>0.287919255642</v>
+      </c>
+      <c r="S7">
+        <v>0.003566190752482428</v>
+      </c>
+      <c r="T7">
+        <v>0.003005312423565317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.0206735</v>
+      </c>
+      <c r="H8">
+        <v>0.041347</v>
+      </c>
+      <c r="I8">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J8">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.3846295</v>
+      </c>
+      <c r="N8">
+        <v>8.769259</v>
+      </c>
+      <c r="O8">
+        <v>0.6180887068188557</v>
+      </c>
+      <c r="P8">
+        <v>0.5189854958816471</v>
+      </c>
+      <c r="Q8">
+        <v>0.09064563796825001</v>
+      </c>
+      <c r="R8">
+        <v>0.362582551873</v>
+      </c>
+      <c r="S8">
+        <v>0.006736464398418403</v>
+      </c>
+      <c r="T8">
+        <v>0.003784650822614129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.0206735</v>
+      </c>
+      <c r="H9">
+        <v>0.041347</v>
+      </c>
+      <c r="I9">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J9">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1722156666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.516647</v>
+      </c>
+      <c r="O9">
+        <v>0.02427675102399122</v>
+      </c>
+      <c r="P9">
+        <v>0.03057639185828191</v>
+      </c>
+      <c r="Q9">
+        <v>0.003560300584833333</v>
+      </c>
+      <c r="R9">
+        <v>0.021361803509</v>
+      </c>
+      <c r="S9">
+        <v>0.0002645889937450566</v>
+      </c>
+      <c r="T9">
+        <v>0.0002229753384580296</v>
       </c>
     </row>
   </sheetData>
